--- a/Code/Results/Cases/Case_4_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31519319157753</v>
+        <v>11.42884377887058</v>
       </c>
       <c r="C2">
-        <v>7.235436634295479</v>
+        <v>8.733351859699688</v>
       </c>
       <c r="D2">
-        <v>7.086545963990557</v>
+        <v>5.99240110028064</v>
       </c>
       <c r="E2">
-        <v>7.876661201739596</v>
+        <v>11.88201854985191</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.43894142878531</v>
+        <v>31.90462562968723</v>
       </c>
       <c r="H2">
-        <v>9.268851582594381</v>
+        <v>15.15969737437433</v>
       </c>
       <c r="I2">
-        <v>15.03291497979469</v>
+        <v>23.82754678969025</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.93349051280534</v>
+        <v>8.734072931944917</v>
       </c>
       <c r="L2">
-        <v>6.867923562939668</v>
+        <v>9.693446550155713</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.21118392744409</v>
+        <v>23.4799202700349</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.3780828381705</v>
+        <v>11.12446420635811</v>
       </c>
       <c r="C3">
-        <v>7.165980116514434</v>
+        <v>8.714002696253743</v>
       </c>
       <c r="D3">
-        <v>6.599722448122323</v>
+        <v>5.874675357440139</v>
       </c>
       <c r="E3">
-        <v>7.770615214642264</v>
+        <v>11.89674192154968</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.23156251869795</v>
+        <v>31.9973920134633</v>
       </c>
       <c r="H3">
-        <v>9.342175745034446</v>
+        <v>15.20993769413628</v>
       </c>
       <c r="I3">
-        <v>15.19595564788941</v>
+        <v>23.92563600816627</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.29584519876384</v>
+        <v>8.511829824201762</v>
       </c>
       <c r="L3">
-        <v>6.656343224036573</v>
+        <v>9.677160502835264</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.2588199694538</v>
+        <v>23.56268646965013</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.76871114928054</v>
+        <v>10.93476586125775</v>
       </c>
       <c r="C4">
-        <v>7.123476868386248</v>
+        <v>8.702231951296076</v>
       </c>
       <c r="D4">
-        <v>6.286451120490315</v>
+        <v>5.802917148986147</v>
       </c>
       <c r="E4">
-        <v>7.709733688085506</v>
+        <v>11.90798196259104</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.13084261553608</v>
+        <v>32.06398089040322</v>
       </c>
       <c r="H4">
-        <v>9.392852845557851</v>
+        <v>15.24314300811064</v>
       </c>
       <c r="I4">
-        <v>15.30727227371972</v>
+        <v>23.99032203942776</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.88499415812357</v>
+        <v>8.373280123315514</v>
       </c>
       <c r="L4">
-        <v>6.526391984520481</v>
+        <v>9.668806924339659</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.30104467177446</v>
+        <v>23.61835063199169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.51181242971362</v>
+        <v>10.85687026102063</v>
       </c>
       <c r="C5">
-        <v>7.106199208318182</v>
+        <v>8.69746432246297</v>
       </c>
       <c r="D5">
-        <v>6.173480032177259</v>
+        <v>5.773852745284229</v>
       </c>
       <c r="E5">
-        <v>7.68599441000196</v>
+        <v>11.91311558509576</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.09629549323846</v>
+        <v>32.09352844890649</v>
       </c>
       <c r="H5">
-        <v>9.414879189562143</v>
+        <v>15.25726734194343</v>
       </c>
       <c r="I5">
-        <v>15.35534352209846</v>
+        <v>24.01780275552591</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.71278614241309</v>
+        <v>8.316373492351275</v>
       </c>
       <c r="L5">
-        <v>6.473501238186137</v>
+        <v>9.66581947793771</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.32138560987782</v>
+        <v>23.64225068795184</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.46863591597212</v>
+        <v>10.84390346129705</v>
       </c>
       <c r="C6">
-        <v>7.103333046423494</v>
+        <v>8.696674457734074</v>
       </c>
       <c r="D6">
-        <v>6.154566023399908</v>
+        <v>5.769038688260827</v>
       </c>
       <c r="E6">
-        <v>7.682117303876709</v>
+        <v>11.91400143065637</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.09094528374549</v>
+        <v>32.09858018952769</v>
       </c>
       <c r="H6">
-        <v>9.418618359012587</v>
+        <v>15.25964848869127</v>
       </c>
       <c r="I6">
-        <v>15.3634862346924</v>
+        <v>24.02243357442448</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.68390495389034</v>
+        <v>8.306899625248883</v>
       </c>
       <c r="L6">
-        <v>6.464725008466172</v>
+        <v>9.665348658034475</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.32494875405011</v>
+        <v>23.64629268704587</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.76528127866724</v>
+        <v>10.93371757538925</v>
       </c>
       <c r="C7">
-        <v>7.12324367375729</v>
+        <v>8.702167533873995</v>
       </c>
       <c r="D7">
-        <v>6.284938031329081</v>
+        <v>5.802524396641746</v>
       </c>
       <c r="E7">
-        <v>7.709409191312997</v>
+        <v>11.90804895650936</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.13035066699308</v>
+        <v>32.06436962587495</v>
       </c>
       <c r="H7">
-        <v>9.393144393801839</v>
+        <v>15.24333109309625</v>
       </c>
       <c r="I7">
-        <v>15.30790975183578</v>
+        <v>23.99068811733377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.88269094770768</v>
+        <v>8.372514360424624</v>
       </c>
       <c r="L7">
-        <v>6.52567831365091</v>
+        <v>9.66876494391936</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.3013064764474</v>
+        <v>23.61866803373964</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.99911123319556</v>
+        <v>11.324542968533</v>
       </c>
       <c r="C8">
-        <v>7.211462262349647</v>
+        <v>8.726658371416505</v>
       </c>
       <c r="D8">
-        <v>6.922220470935497</v>
+        <v>5.951727198732017</v>
       </c>
       <c r="E8">
-        <v>7.839223125334847</v>
+        <v>11.88663866260831</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.36180348336748</v>
+        <v>31.93460729869559</v>
       </c>
       <c r="H8">
-        <v>9.292930808322001</v>
+        <v>15.17653097073952</v>
       </c>
       <c r="I8">
-        <v>15.08673694446611</v>
+        <v>23.86044216610481</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.71768463786769</v>
+        <v>8.657923932127169</v>
       </c>
       <c r="L8">
-        <v>6.795022921605868</v>
+        <v>9.687491217485599</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.22483775847844</v>
+        <v>23.50745123970087</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15057970769334</v>
+        <v>12.06399541578113</v>
       </c>
       <c r="C9">
-        <v>7.385313473191345</v>
+        <v>8.775492149426704</v>
       </c>
       <c r="D9">
-        <v>8.043480863689561</v>
+        <v>6.246525281230951</v>
       </c>
       <c r="E9">
-        <v>8.126950257697418</v>
+        <v>11.86210102307946</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.03438535355113</v>
+        <v>31.75694520777366</v>
       </c>
       <c r="H9">
-        <v>9.143522381493742</v>
+        <v>15.06423891659853</v>
       </c>
       <c r="I9">
-        <v>14.74721329915614</v>
+        <v>23.6404351897891</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.19916047653752</v>
+        <v>9.197750548144432</v>
       </c>
       <c r="L9">
-        <v>7.319817142365144</v>
+        <v>9.737141040961877</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.18365351779359</v>
+        <v>23.32788682364752</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.5702669606462</v>
+        <v>12.58508331737763</v>
       </c>
       <c r="C10">
-        <v>7.513208771227328</v>
+        <v>8.811778655675537</v>
       </c>
       <c r="D10">
-        <v>8.787260618339085</v>
+        <v>6.461914830710781</v>
       </c>
       <c r="E10">
-        <v>8.357874272901693</v>
+        <v>11.85469374684624</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.67050476740682</v>
+        <v>31.67372503537339</v>
       </c>
       <c r="H10">
-        <v>9.0657260961327</v>
+        <v>14.99313488709337</v>
       </c>
       <c r="I10">
-        <v>14.56293246690178</v>
+        <v>23.50041524557287</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.19023373605446</v>
+        <v>9.578215768643059</v>
       </c>
       <c r="L10">
-        <v>7.699607156529216</v>
+        <v>9.781303959639475</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.22768200271842</v>
+        <v>23.21956464485018</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.18174124410902</v>
+        <v>12.81625284130904</v>
       </c>
       <c r="C11">
-        <v>7.571359403470034</v>
+        <v>8.828356850430625</v>
       </c>
       <c r="D11">
-        <v>9.108671576720035</v>
+        <v>6.559132611011775</v>
       </c>
       <c r="E11">
-        <v>8.466991833645308</v>
+        <v>11.8536235561098</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.99209483534285</v>
+        <v>31.64622544009425</v>
       </c>
       <c r="H11">
-        <v>9.038036112331215</v>
+        <v>14.96326169561904</v>
       </c>
       <c r="I11">
-        <v>14.49507731597318</v>
+        <v>23.4414190920533</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.6197250446476</v>
+        <v>9.747038444089101</v>
       </c>
       <c r="L11">
-        <v>7.870468885621697</v>
+        <v>9.803016008395263</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.26554442152455</v>
+        <v>23.17543470835703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.40840096291003</v>
+        <v>12.90286670891712</v>
       </c>
       <c r="C12">
-        <v>7.593369897917829</v>
+        <v>8.83464321903562</v>
       </c>
       <c r="D12">
-        <v>9.227980778751805</v>
+        <v>6.595796903690247</v>
       </c>
       <c r="E12">
-        <v>8.50888068963252</v>
+        <v>11.85354809671238</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.1185873596226</v>
+        <v>31.63730709744415</v>
       </c>
       <c r="H12">
-        <v>9.028724627463694</v>
+        <v>14.95230501324753</v>
       </c>
       <c r="I12">
-        <v>14.47184179962577</v>
+        <v>23.41975540880477</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.77928456730335</v>
+        <v>9.810299464797463</v>
       </c>
       <c r="L12">
-        <v>7.934849168663066</v>
+        <v>9.81146656597301</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.28258434307385</v>
+        <v>23.15946573844872</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.35980255094987</v>
+        <v>12.88425520050972</v>
       </c>
       <c r="C13">
-        <v>7.588630068221367</v>
+        <v>8.833288983094327</v>
       </c>
       <c r="D13">
-        <v>9.202391698327997</v>
+        <v>6.587907877220328</v>
       </c>
       <c r="E13">
-        <v>8.499834161524976</v>
+        <v>11.85354969579615</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.09113421355752</v>
+        <v>31.6391612437932</v>
       </c>
       <c r="H13">
-        <v>9.030676704828272</v>
+        <v>14.95464891139157</v>
       </c>
       <c r="I13">
-        <v>14.47673390759927</v>
+        <v>23.42439094877105</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.74505758637442</v>
+        <v>9.796705655755327</v>
       </c>
       <c r="L13">
-        <v>7.920998695509737</v>
+        <v>9.809636492559548</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.27879213575586</v>
+        <v>23.16287190607675</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.20048644751063</v>
+        <v>12.82339758768561</v>
       </c>
       <c r="C14">
-        <v>7.573170448751061</v>
+        <v>8.828873871787529</v>
       </c>
       <c r="D14">
-        <v>9.118535163430717</v>
+        <v>6.562152231918914</v>
       </c>
       <c r="E14">
-        <v>8.470426759296393</v>
+        <v>11.85361074386819</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.00240659214078</v>
+        <v>31.64546172816234</v>
       </c>
       <c r="H14">
-        <v>9.037246125611732</v>
+        <v>14.96235315437101</v>
       </c>
       <c r="I14">
-        <v>14.49311545785267</v>
+        <v>23.43962323585379</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.63291384257073</v>
+        <v>9.752256671709928</v>
       </c>
       <c r="L14">
-        <v>7.875772177194605</v>
+        <v>9.803706685037215</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.26689136704046</v>
+        <v>23.17410604783247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.1022650438593</v>
+        <v>12.78599782681235</v>
       </c>
       <c r="C15">
-        <v>7.563699539020615</v>
+        <v>8.826170553914075</v>
       </c>
       <c r="D15">
-        <v>9.066858796602723</v>
+        <v>6.546355472307014</v>
       </c>
       <c r="E15">
-        <v>8.452487401898006</v>
+        <v>11.85369105880305</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.94867425783169</v>
+        <v>31.64951582373572</v>
       </c>
       <c r="H15">
-        <v>9.041425028298573</v>
+        <v>14.96711854500772</v>
       </c>
       <c r="I15">
-        <v>14.50347493152849</v>
+        <v>23.4490416336553</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.56382139364822</v>
+        <v>9.724941727520957</v>
       </c>
       <c r="L15">
-        <v>7.848026492971568</v>
+        <v>9.800104146529973</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.25995777013004</v>
+        <v>23.18108398377112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.52961845659188</v>
+        <v>12.56985059536287</v>
       </c>
       <c r="C16">
-        <v>7.509407402626729</v>
+        <v>8.810696522446419</v>
       </c>
       <c r="D16">
-        <v>8.765917660059815</v>
+        <v>6.455542567757025</v>
       </c>
       <c r="E16">
-        <v>8.350823637377719</v>
+        <v>11.85480988730996</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.6501437010945</v>
+        <v>31.67573113432312</v>
       </c>
       <c r="H16">
-        <v>9.067696288004859</v>
+        <v>14.99513693140704</v>
       </c>
       <c r="I16">
-        <v>14.56770212397327</v>
+        <v>23.5043654431562</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.16173483082669</v>
+        <v>9.567092253521247</v>
       </c>
       <c r="L16">
-        <v>7.688398390843987</v>
+        <v>9.77991728171108</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.22557828529479</v>
+        <v>23.22255237408346</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.16955347965791</v>
+        <v>12.43568700364621</v>
       </c>
       <c r="C17">
-        <v>7.476089198142466</v>
+        <v>8.801220769368191</v>
       </c>
       <c r="D17">
-        <v>8.576985284966073</v>
+        <v>6.399606883931186</v>
       </c>
       <c r="E17">
-        <v>8.289486563178606</v>
+        <v>11.85608463417444</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.47531970745914</v>
+        <v>31.69447062001701</v>
       </c>
       <c r="H17">
-        <v>9.085831569140165</v>
+        <v>15.01295862654233</v>
       </c>
       <c r="I17">
-        <v>14.611308019963</v>
+        <v>23.5395092554553</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.90958961834685</v>
+        <v>9.469125386001606</v>
       </c>
       <c r="L17">
-        <v>7.589947723488858</v>
+        <v>9.767945581872089</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.2091538294264</v>
+        <v>23.24931147162657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.95921761454328</v>
+        <v>12.35797089390208</v>
       </c>
       <c r="C18">
-        <v>7.456922972842844</v>
+        <v>8.795777377995481</v>
       </c>
       <c r="D18">
-        <v>8.46672001210953</v>
+        <v>6.36736451098048</v>
       </c>
       <c r="E18">
-        <v>8.25459113209871</v>
+        <v>11.85703432874634</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.37779438058837</v>
+        <v>31.70622370836976</v>
       </c>
       <c r="H18">
-        <v>9.096983061222454</v>
+        <v>15.02344189963694</v>
       </c>
       <c r="I18">
-        <v>14.63788237694841</v>
+        <v>23.56016533134882</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.76255247815599</v>
+        <v>9.412380218488712</v>
       </c>
       <c r="L18">
-        <v>7.533144443029713</v>
+        <v>9.761212749524677</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.20137736099142</v>
+        <v>23.26518688009917</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.88744432485528</v>
+        <v>12.33156586366365</v>
       </c>
       <c r="C19">
-        <v>7.450433372731576</v>
+        <v>8.793935560063375</v>
       </c>
       <c r="D19">
-        <v>8.429110902611887</v>
+        <v>6.356437093445042</v>
       </c>
       <c r="E19">
-        <v>8.242842603185837</v>
+        <v>11.85739308528463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.34529141037481</v>
+        <v>31.71037030529711</v>
       </c>
       <c r="H19">
-        <v>9.100880535635982</v>
+        <v>15.02703131955397</v>
       </c>
       <c r="I19">
-        <v>14.64713167548177</v>
+        <v>23.56723505400544</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.71242344417389</v>
+        <v>9.393100872827228</v>
       </c>
       <c r="L19">
-        <v>7.513882963437987</v>
+        <v>9.758959536615929</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.19902705366038</v>
+        <v>23.27064513336639</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.20821759361743</v>
+        <v>12.45002634471203</v>
       </c>
       <c r="C20">
-        <v>7.479636276448712</v>
+        <v>8.802228786675787</v>
       </c>
       <c r="D20">
-        <v>8.597262437151507</v>
+        <v>6.405568838699736</v>
       </c>
       <c r="E20">
-        <v>8.29597637440108</v>
+        <v>11.85592653454246</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.49361590542004</v>
+        <v>31.69237485434918</v>
       </c>
       <c r="H20">
-        <v>9.083825988193933</v>
+        <v>15.01103739166416</v>
       </c>
       <c r="I20">
-        <v>14.60651038613334</v>
+        <v>23.53572235408373</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.93663901386443</v>
+        <v>9.479595664638856</v>
       </c>
       <c r="L20">
-        <v>7.600446652877818</v>
+        <v>9.769204189998087</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.21072835193107</v>
+        <v>23.24641278347527</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.24741383901516</v>
+        <v>12.84129865034672</v>
       </c>
       <c r="C21">
-        <v>7.577711624503921</v>
+        <v>8.83017047802635</v>
       </c>
       <c r="D21">
-        <v>9.143230781626938</v>
+        <v>6.569721668072096</v>
       </c>
       <c r="E21">
-        <v>8.479049133320489</v>
+        <v>11.85358386959069</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.02833957459898</v>
+        <v>31.64357050423299</v>
       </c>
       <c r="H21">
-        <v>9.03528411377545</v>
+        <v>14.96008057832298</v>
       </c>
       <c r="I21">
-        <v>14.48823570515699</v>
+        <v>23.4351307648662</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.66593678602671</v>
+        <v>9.765330986680107</v>
       </c>
       <c r="L21">
-        <v>7.889065366320054</v>
+        <v>9.805442244883029</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.27031248504026</v>
+        <v>23.17078615242011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.89809594269672</v>
+        <v>13.09159397291834</v>
       </c>
       <c r="C22">
-        <v>7.641749657545447</v>
+        <v>8.848481125348526</v>
       </c>
       <c r="D22">
-        <v>9.486067415519223</v>
+        <v>6.676113872686845</v>
       </c>
       <c r="E22">
-        <v>8.602003197486093</v>
+        <v>11.85397460360567</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.4053104505911</v>
+        <v>31.62039091610522</v>
       </c>
       <c r="H22">
-        <v>9.010436094559024</v>
+        <v>14.92885039551974</v>
       </c>
       <c r="I22">
-        <v>14.42535505526737</v>
+        <v>23.37333423557942</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.12462676922759</v>
+        <v>9.948156284482073</v>
       </c>
       <c r="L22">
-        <v>8.075804116161777</v>
+        <v>9.830456496510887</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.32506728564632</v>
+        <v>23.12568607037382</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.55340560949063</v>
+        <v>12.95852750289815</v>
       </c>
       <c r="C23">
-        <v>7.607578560581604</v>
+        <v>8.838704452853245</v>
       </c>
       <c r="D23">
-        <v>9.304357340877658</v>
+        <v>6.619424563499216</v>
       </c>
       <c r="E23">
-        <v>8.536083359193434</v>
+        <v>11.853590543256</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.20157588019789</v>
+        <v>31.63196306614978</v>
       </c>
       <c r="H23">
-        <v>9.02304579579404</v>
+        <v>14.94532880788434</v>
       </c>
       <c r="I23">
-        <v>14.45754045375179</v>
+        <v>23.40595479475497</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.88145842366042</v>
+        <v>9.850955124446568</v>
       </c>
       <c r="L23">
-        <v>7.976324966286216</v>
+        <v>9.816985752603751</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.29435174301794</v>
+        <v>23.14936032472789</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.19074792253787</v>
+        <v>12.44354534047298</v>
       </c>
       <c r="C24">
-        <v>7.478032676628805</v>
+        <v>8.801773048392187</v>
       </c>
       <c r="D24">
-        <v>8.58810026464384</v>
+        <v>6.402873698160183</v>
       </c>
       <c r="E24">
-        <v>8.293041183019305</v>
+        <v>11.8559973359416</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.48533490827181</v>
+        <v>31.69331929934688</v>
       </c>
       <c r="H24">
-        <v>9.084730457287234</v>
+        <v>15.01190524264421</v>
       </c>
       <c r="I24">
-        <v>14.60867472164588</v>
+        <v>23.53743300608879</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.92441644609201</v>
+        <v>9.474863363941672</v>
       </c>
       <c r="L24">
-        <v>7.595700714549579</v>
+        <v>9.768634706135387</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.21001133102462</v>
+        <v>23.24772175033089</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.59701024913404</v>
+        <v>11.86746259010078</v>
       </c>
       <c r="C25">
-        <v>7.338228172133773</v>
+        <v>8.762203460404566</v>
       </c>
       <c r="D25">
-        <v>7.754339782661355</v>
+        <v>6.166806411142129</v>
       </c>
       <c r="E25">
-        <v>8.04562577786081</v>
+        <v>11.86687223082161</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.82803829913922</v>
+        <v>31.79673169158723</v>
       </c>
       <c r="H25">
-        <v>9.178572626508961</v>
+        <v>15.09261514502806</v>
       </c>
       <c r="I25">
-        <v>14.82820974885338</v>
+        <v>23.69615900570065</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.81536561061952</v>
+        <v>9.054275421007532</v>
       </c>
       <c r="L25">
-        <v>7.178615159315373</v>
+        <v>9.722344519634307</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.18232694263108</v>
+        <v>23.37232668521125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.42884377887058</v>
+        <v>14.31519319157754</v>
       </c>
       <c r="C2">
-        <v>8.733351859699688</v>
+        <v>7.23543663429558</v>
       </c>
       <c r="D2">
-        <v>5.99240110028064</v>
+        <v>7.08654596399056</v>
       </c>
       <c r="E2">
-        <v>11.88201854985191</v>
+        <v>7.876661201739594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.90462562968723</v>
+        <v>23.43894142878529</v>
       </c>
       <c r="H2">
-        <v>15.15969737437433</v>
+        <v>9.268851582594328</v>
       </c>
       <c r="I2">
-        <v>23.82754678969025</v>
+        <v>15.03291497979462</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.734072931944917</v>
+        <v>11.93349051280535</v>
       </c>
       <c r="L2">
-        <v>9.693446550155713</v>
+        <v>6.867923562939657</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.4799202700349</v>
+        <v>15.21118392744403</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.12446420635811</v>
+        <v>13.37808283817055</v>
       </c>
       <c r="C3">
-        <v>8.714002696253743</v>
+        <v>7.165980116514301</v>
       </c>
       <c r="D3">
-        <v>5.874675357440139</v>
+        <v>6.599722448122337</v>
       </c>
       <c r="E3">
-        <v>11.89674192154968</v>
+        <v>7.770615214642279</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31.9973920134633</v>
+        <v>23.2315625186979</v>
       </c>
       <c r="H3">
-        <v>15.20993769413628</v>
+        <v>9.342175745034416</v>
       </c>
       <c r="I3">
-        <v>23.92563600816627</v>
+        <v>15.19595564788927</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.511829824201762</v>
+        <v>11.29584519876387</v>
       </c>
       <c r="L3">
-        <v>9.677160502835264</v>
+        <v>6.656343224036577</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.56268646965013</v>
+        <v>15.25881996945369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93476586125775</v>
+        <v>12.76871114928063</v>
       </c>
       <c r="C4">
-        <v>8.702231951296076</v>
+        <v>7.123476868386111</v>
       </c>
       <c r="D4">
-        <v>5.802917148986147</v>
+        <v>6.286451120490277</v>
       </c>
       <c r="E4">
-        <v>11.90798196259104</v>
+        <v>7.709733688085412</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.06398089040322</v>
+        <v>23.13084261553567</v>
       </c>
       <c r="H4">
-        <v>15.24314300811064</v>
+        <v>9.39285284555786</v>
       </c>
       <c r="I4">
-        <v>23.99032203942776</v>
+        <v>15.3072722737196</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.373280123315514</v>
+        <v>10.88499415812366</v>
       </c>
       <c r="L4">
-        <v>9.668806924339659</v>
+        <v>6.526391984520459</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.61835063199169</v>
+        <v>15.30104467177434</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85687026102063</v>
+        <v>12.5118124297136</v>
       </c>
       <c r="C5">
-        <v>8.69746432246297</v>
+        <v>7.106199208318044</v>
       </c>
       <c r="D5">
-        <v>5.773852745284229</v>
+        <v>6.173480032177231</v>
       </c>
       <c r="E5">
-        <v>11.91311558509576</v>
+        <v>7.685994410001919</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.09352844890649</v>
+        <v>23.09629549323877</v>
       </c>
       <c r="H5">
-        <v>15.25726734194343</v>
+        <v>9.414879189562326</v>
       </c>
       <c r="I5">
-        <v>24.01780275552591</v>
+        <v>15.35534352209865</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.316373492351275</v>
+        <v>10.71278614241307</v>
       </c>
       <c r="L5">
-        <v>9.66581947793771</v>
+        <v>6.473501238186147</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.64225068795184</v>
+        <v>15.32138560987799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.84390346129705</v>
+        <v>12.46863591597209</v>
       </c>
       <c r="C6">
-        <v>8.696674457734074</v>
+        <v>7.103333046423245</v>
       </c>
       <c r="D6">
-        <v>5.769038688260827</v>
+        <v>6.154566023399941</v>
       </c>
       <c r="E6">
-        <v>11.91400143065637</v>
+        <v>7.682117303876677</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.09858018952769</v>
+        <v>23.09094528374591</v>
       </c>
       <c r="H6">
-        <v>15.25964848869127</v>
+        <v>9.418618359012598</v>
       </c>
       <c r="I6">
-        <v>24.02243357442448</v>
+        <v>15.36348623469253</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.306899625248883</v>
+        <v>10.68390495389033</v>
       </c>
       <c r="L6">
-        <v>9.665348658034475</v>
+        <v>6.464725008466115</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.64629268704587</v>
+        <v>15.32494875405024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93371757538925</v>
+        <v>12.76528127866724</v>
       </c>
       <c r="C7">
-        <v>8.702167533873995</v>
+        <v>7.123243673757658</v>
       </c>
       <c r="D7">
-        <v>5.802524396641746</v>
+        <v>6.284938031329106</v>
       </c>
       <c r="E7">
-        <v>11.90804895650936</v>
+        <v>7.709409191313049</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.06436962587495</v>
+        <v>23.13035066699305</v>
       </c>
       <c r="H7">
-        <v>15.24333109309625</v>
+        <v>9.393144393801727</v>
       </c>
       <c r="I7">
-        <v>23.99068811733377</v>
+        <v>15.30790975183579</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.372514360424624</v>
+        <v>10.88269094770776</v>
       </c>
       <c r="L7">
-        <v>9.66876494391936</v>
+        <v>6.525678313650869</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.61866803373964</v>
+        <v>15.30130647644734</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.324542968533</v>
+        <v>13.9991112331956</v>
       </c>
       <c r="C8">
-        <v>8.726658371416505</v>
+        <v>7.211462262349272</v>
       </c>
       <c r="D8">
-        <v>5.951727198732017</v>
+        <v>6.922220470935465</v>
       </c>
       <c r="E8">
-        <v>11.88663866260831</v>
+        <v>7.839223125334721</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31.93460729869559</v>
+        <v>23.36180348336735</v>
       </c>
       <c r="H8">
-        <v>15.17653097073952</v>
+        <v>9.292930808322001</v>
       </c>
       <c r="I8">
-        <v>23.86044216610481</v>
+        <v>15.08673694446598</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.657923932127169</v>
+        <v>11.71768463786764</v>
       </c>
       <c r="L8">
-        <v>9.687491217485599</v>
+        <v>6.795022921605899</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.50745123970087</v>
+        <v>15.2248377584784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.06399541578113</v>
+        <v>16.15057970769331</v>
       </c>
       <c r="C9">
-        <v>8.775492149426704</v>
+        <v>7.385313473191321</v>
       </c>
       <c r="D9">
-        <v>6.246525281230951</v>
+        <v>8.043480863689599</v>
       </c>
       <c r="E9">
-        <v>11.86210102307946</v>
+        <v>8.126950257697443</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.75694520777366</v>
+        <v>24.03438535355125</v>
       </c>
       <c r="H9">
-        <v>15.06423891659853</v>
+        <v>9.14352238149376</v>
       </c>
       <c r="I9">
-        <v>23.6404351897891</v>
+        <v>14.74721329915617</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.197750548144432</v>
+        <v>13.19916047653752</v>
       </c>
       <c r="L9">
-        <v>9.737141040961877</v>
+        <v>7.319817142365161</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.32788682364752</v>
+        <v>15.18365351779367</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.58508331737763</v>
+        <v>17.57026696064617</v>
       </c>
       <c r="C10">
-        <v>8.811778655675537</v>
+        <v>7.513208771227196</v>
       </c>
       <c r="D10">
-        <v>6.461914830710781</v>
+        <v>8.787260618339074</v>
       </c>
       <c r="E10">
-        <v>11.85469374684624</v>
+        <v>8.357874272901778</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.67372503537339</v>
+        <v>24.67050476740693</v>
       </c>
       <c r="H10">
-        <v>14.99313488709337</v>
+        <v>9.065726096132721</v>
       </c>
       <c r="I10">
-        <v>23.50041524557287</v>
+        <v>14.56293246690189</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.578215768643059</v>
+        <v>14.19023373605442</v>
       </c>
       <c r="L10">
-        <v>9.781303959639475</v>
+        <v>7.699607156529263</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.21956464485018</v>
+        <v>15.22768200271851</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.81625284130904</v>
+        <v>18.18174124410903</v>
       </c>
       <c r="C11">
-        <v>8.828356850430625</v>
+        <v>7.571359403470024</v>
       </c>
       <c r="D11">
-        <v>6.559132611011775</v>
+        <v>9.108671576720036</v>
       </c>
       <c r="E11">
-        <v>11.8536235561098</v>
+        <v>8.466991833645348</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31.64622544009425</v>
+        <v>24.99209483534283</v>
       </c>
       <c r="H11">
-        <v>14.96326169561904</v>
+        <v>9.038036112331225</v>
       </c>
       <c r="I11">
-        <v>23.4414190920533</v>
+        <v>14.49507731597318</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.747038444089101</v>
+        <v>14.61972504464761</v>
       </c>
       <c r="L11">
-        <v>9.803016008395263</v>
+        <v>7.870468885621719</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.17543470835703</v>
+        <v>15.26554442152456</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.90286670891712</v>
+        <v>18.40840096291</v>
       </c>
       <c r="C12">
-        <v>8.83464321903562</v>
+        <v>7.593369897917916</v>
       </c>
       <c r="D12">
-        <v>6.595796903690247</v>
+        <v>9.227980778751744</v>
       </c>
       <c r="E12">
-        <v>11.85354809671238</v>
+        <v>8.508880689632571</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.63730709744415</v>
+        <v>25.11858735962268</v>
       </c>
       <c r="H12">
-        <v>14.95230501324753</v>
+        <v>9.028724627463751</v>
       </c>
       <c r="I12">
-        <v>23.41975540880477</v>
+        <v>14.47184179962593</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.810299464797463</v>
+        <v>14.77928456730333</v>
       </c>
       <c r="L12">
-        <v>9.81146656597301</v>
+        <v>7.934849168663077</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.15946573844872</v>
+        <v>15.28258434307397</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.88425520050972</v>
+        <v>18.35980255094995</v>
       </c>
       <c r="C13">
-        <v>8.833288983094327</v>
+        <v>7.588630068221357</v>
       </c>
       <c r="D13">
-        <v>6.587907877220328</v>
+        <v>9.20239169832794</v>
       </c>
       <c r="E13">
-        <v>11.85354969579615</v>
+        <v>8.499834161524952</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.6391612437932</v>
+        <v>25.09113421355746</v>
       </c>
       <c r="H13">
-        <v>14.95464891139157</v>
+        <v>9.030676704828236</v>
       </c>
       <c r="I13">
-        <v>23.42439094877105</v>
+        <v>14.4767339075992</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.796705655755327</v>
+        <v>14.74505758637449</v>
       </c>
       <c r="L13">
-        <v>9.809636492559548</v>
+        <v>7.920998695509737</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.16287190607675</v>
+        <v>15.27879213575579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.82339758768561</v>
+        <v>18.20048644751061</v>
       </c>
       <c r="C14">
-        <v>8.828873871787529</v>
+        <v>7.573170448750814</v>
       </c>
       <c r="D14">
-        <v>6.562152231918914</v>
+        <v>9.118535163430705</v>
       </c>
       <c r="E14">
-        <v>11.85361074386819</v>
+        <v>8.470426759296279</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31.64546172816234</v>
+        <v>25.00240659214092</v>
       </c>
       <c r="H14">
-        <v>14.96235315437101</v>
+        <v>9.03724612561183</v>
       </c>
       <c r="I14">
-        <v>23.43962323585379</v>
+        <v>14.4931154578528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.752256671709928</v>
+        <v>14.63291384257069</v>
       </c>
       <c r="L14">
-        <v>9.803706685037215</v>
+        <v>7.875772177194586</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.17410604783247</v>
+        <v>15.26689136704062</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.78599782681235</v>
+        <v>18.10226504385932</v>
       </c>
       <c r="C15">
-        <v>8.826170553914075</v>
+        <v>7.563699539020605</v>
       </c>
       <c r="D15">
-        <v>6.546355472307014</v>
+        <v>9.066858796602716</v>
       </c>
       <c r="E15">
-        <v>11.85369105880305</v>
+        <v>8.452487401897967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>31.64951582373572</v>
+        <v>24.94867425783159</v>
       </c>
       <c r="H15">
-        <v>14.96711854500772</v>
+        <v>9.041425028298583</v>
       </c>
       <c r="I15">
-        <v>23.4490416336553</v>
+        <v>14.50347493152846</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.724941727520957</v>
+        <v>14.56382139364823</v>
       </c>
       <c r="L15">
-        <v>9.800104146529973</v>
+        <v>7.848026492971559</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.18108398377112</v>
+        <v>15.25995777013</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.56985059536287</v>
+        <v>17.52961845659184</v>
       </c>
       <c r="C16">
-        <v>8.810696522446419</v>
+        <v>7.509407402626819</v>
       </c>
       <c r="D16">
-        <v>6.455542567757025</v>
+        <v>8.765917660059868</v>
       </c>
       <c r="E16">
-        <v>11.85480988730996</v>
+        <v>8.350823637377694</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.67573113432312</v>
+        <v>24.65014370109491</v>
       </c>
       <c r="H16">
-        <v>14.99513693140704</v>
+        <v>9.067696288004981</v>
       </c>
       <c r="I16">
-        <v>23.5043654431562</v>
+        <v>14.56770212397353</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.567092253521247</v>
+        <v>14.16173483082666</v>
       </c>
       <c r="L16">
-        <v>9.77991728171108</v>
+        <v>7.688398390843935</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.22255237408346</v>
+        <v>15.22557828529497</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.43568700364621</v>
+        <v>17.16955347965794</v>
       </c>
       <c r="C17">
-        <v>8.801220769368191</v>
+        <v>7.476089198142432</v>
       </c>
       <c r="D17">
-        <v>6.399606883931186</v>
+        <v>8.576985284966122</v>
       </c>
       <c r="E17">
-        <v>11.85608463417444</v>
+        <v>8.289486563178647</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>31.69447062001701</v>
+        <v>24.47531970745892</v>
       </c>
       <c r="H17">
-        <v>15.01295862654233</v>
+        <v>9.085831569140121</v>
       </c>
       <c r="I17">
-        <v>23.5395092554553</v>
+        <v>14.61130801996284</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.469125386001606</v>
+        <v>13.90958961834689</v>
       </c>
       <c r="L17">
-        <v>9.767945581872089</v>
+        <v>7.589947723488881</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.24931147162657</v>
+        <v>15.20915382942626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.35797089390208</v>
+        <v>16.95921761454326</v>
       </c>
       <c r="C18">
-        <v>8.795777377995481</v>
+        <v>7.456922972842703</v>
       </c>
       <c r="D18">
-        <v>6.36736451098048</v>
+        <v>8.466720012109514</v>
       </c>
       <c r="E18">
-        <v>11.85703432874634</v>
+        <v>8.25459113209876</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>31.70622370836976</v>
+        <v>24.37779438058835</v>
       </c>
       <c r="H18">
-        <v>15.02344189963694</v>
+        <v>9.096983061222518</v>
       </c>
       <c r="I18">
-        <v>23.56016533134882</v>
+        <v>14.63788237694846</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.412380218488712</v>
+        <v>13.76255247815598</v>
       </c>
       <c r="L18">
-        <v>9.761212749524677</v>
+        <v>7.533144443029709</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.26518688009917</v>
+        <v>15.20137736099146</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.33156586366365</v>
+        <v>16.88744432485528</v>
       </c>
       <c r="C19">
-        <v>8.793935560063375</v>
+        <v>7.450433372731569</v>
       </c>
       <c r="D19">
-        <v>6.356437093445042</v>
+        <v>8.429110902611908</v>
       </c>
       <c r="E19">
-        <v>11.85739308528463</v>
+        <v>8.242842603185846</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31.71037030529711</v>
+        <v>24.34529141037492</v>
       </c>
       <c r="H19">
-        <v>15.02703131955397</v>
+        <v>9.100880535635941</v>
       </c>
       <c r="I19">
-        <v>23.56723505400544</v>
+        <v>14.64713167548177</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.393100872827228</v>
+        <v>13.71242344417387</v>
       </c>
       <c r="L19">
-        <v>9.758959536615929</v>
+        <v>7.513882963437984</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.27064513336639</v>
+        <v>15.19902705366036</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.45002634471203</v>
+        <v>17.20821759361745</v>
       </c>
       <c r="C20">
-        <v>8.802228786675787</v>
+        <v>7.479636276448702</v>
       </c>
       <c r="D20">
-        <v>6.405568838699736</v>
+        <v>8.597262437151569</v>
       </c>
       <c r="E20">
-        <v>11.85592653454246</v>
+        <v>8.29597637440104</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>31.69237485434918</v>
+        <v>24.49361590542002</v>
       </c>
       <c r="H20">
-        <v>15.01103739166416</v>
+        <v>9.083825988193947</v>
       </c>
       <c r="I20">
-        <v>23.53572235408373</v>
+        <v>14.60651038613337</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.479595664638856</v>
+        <v>13.93663901386449</v>
       </c>
       <c r="L20">
-        <v>9.769204189998087</v>
+        <v>7.600446652877768</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.24641278347527</v>
+        <v>15.21072835193105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.84129865034672</v>
+        <v>18.24741383901515</v>
       </c>
       <c r="C21">
-        <v>8.83017047802635</v>
+        <v>7.577711624503923</v>
       </c>
       <c r="D21">
-        <v>6.569721668072096</v>
+        <v>9.143230781626913</v>
       </c>
       <c r="E21">
-        <v>11.85358386959069</v>
+        <v>8.479049133320515</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.64357050423299</v>
+        <v>25.02833957459908</v>
       </c>
       <c r="H21">
-        <v>14.96008057832298</v>
+        <v>9.035284113775498</v>
       </c>
       <c r="I21">
-        <v>23.4351307648662</v>
+        <v>14.48823570515714</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.765330986680107</v>
+        <v>14.66593678602669</v>
       </c>
       <c r="L21">
-        <v>9.805442244883029</v>
+        <v>7.889065366320056</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.17078615242011</v>
+        <v>15.27031248504033</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.09159397291834</v>
+        <v>18.89809594269683</v>
       </c>
       <c r="C22">
-        <v>8.848481125348526</v>
+        <v>7.641749657545192</v>
       </c>
       <c r="D22">
-        <v>6.676113872686845</v>
+        <v>9.48606741551912</v>
       </c>
       <c r="E22">
-        <v>11.85397460360567</v>
+        <v>8.602003197486136</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.62039091610522</v>
+        <v>25.40531045059108</v>
       </c>
       <c r="H22">
-        <v>14.92885039551974</v>
+        <v>9.010436094559074</v>
       </c>
       <c r="I22">
-        <v>23.37333423557942</v>
+        <v>14.42535505526732</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.948156284482073</v>
+        <v>15.12462676922764</v>
       </c>
       <c r="L22">
-        <v>9.830456496510887</v>
+        <v>8.075804116161805</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.12568607037382</v>
+        <v>15.3250672856463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.95852750289815</v>
+        <v>18.55340560949069</v>
       </c>
       <c r="C23">
-        <v>8.838704452853245</v>
+        <v>7.60757856058136</v>
       </c>
       <c r="D23">
-        <v>6.619424563499216</v>
+        <v>9.304357340877729</v>
       </c>
       <c r="E23">
-        <v>11.853590543256</v>
+        <v>8.536083359193409</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.63196306614978</v>
+        <v>25.20157588019791</v>
       </c>
       <c r="H23">
-        <v>14.94532880788434</v>
+        <v>9.023045795793982</v>
       </c>
       <c r="I23">
-        <v>23.40595479475497</v>
+        <v>14.45754045375174</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.850955124446568</v>
+        <v>14.88145842366046</v>
       </c>
       <c r="L23">
-        <v>9.816985752603751</v>
+        <v>7.976324966286208</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.14936032472789</v>
+        <v>15.29435174301793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.44354534047298</v>
+        <v>17.19074792253784</v>
       </c>
       <c r="C24">
-        <v>8.801773048392187</v>
+        <v>7.478032676629039</v>
       </c>
       <c r="D24">
-        <v>6.402873698160183</v>
+        <v>8.588100264643847</v>
       </c>
       <c r="E24">
-        <v>11.8559973359416</v>
+        <v>8.293041183019385</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>31.69331929934688</v>
+        <v>24.4853349082719</v>
       </c>
       <c r="H24">
-        <v>15.01190524264421</v>
+        <v>9.08473045728724</v>
       </c>
       <c r="I24">
-        <v>23.53743300608879</v>
+        <v>14.60867472164598</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.474863363941672</v>
+        <v>13.92441644609203</v>
       </c>
       <c r="L24">
-        <v>9.768634706135387</v>
+        <v>7.595700714549585</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.24772175033089</v>
+        <v>15.21001133102465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.86746259010078</v>
+        <v>15.59701024913404</v>
       </c>
       <c r="C25">
-        <v>8.762203460404566</v>
+        <v>7.338228172133886</v>
       </c>
       <c r="D25">
-        <v>6.166806411142129</v>
+        <v>7.754339782661308</v>
       </c>
       <c r="E25">
-        <v>11.86687223082161</v>
+        <v>8.045625777860897</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.79673169158723</v>
+        <v>23.82803829913921</v>
       </c>
       <c r="H25">
-        <v>15.09261514502806</v>
+        <v>9.178572626508865</v>
       </c>
       <c r="I25">
-        <v>23.69615900570065</v>
+        <v>14.82820974885338</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.054275421007532</v>
+        <v>12.81536561061955</v>
       </c>
       <c r="L25">
-        <v>9.722344519634307</v>
+        <v>7.178615159315331</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.37232668521125</v>
+        <v>15.18232694263104</v>
       </c>
     </row>
   </sheetData>
